--- a/Test/excel/adv_unit_01-01_14.xlsx
+++ b/Test/excel/adv_unit_01-01_14.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren\Documents\GitHub\Gakumas-Translate\raw\Test\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DED673-5FAD-4370-8C9E-4650BD55833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -530,8 +524,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,21 +594,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -652,7 +638,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -686,7 +672,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -721,10 +706,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,20 +881,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="70.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -927,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,7 +926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -961,7 +943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -978,7 +960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,7 +971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +982,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1027,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1044,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1198,7 +1180,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1248,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1282,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1299,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1350,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1384,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1452,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1487,7 +1469,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1486,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1520,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1537,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1571,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1588,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1605,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1707,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1741,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1758,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1775,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1792,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -1844,7 +1826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +1843,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1860,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +1877,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -1929,7 +1911,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1928,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1945,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1962,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +1979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +1996,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2031,7 +2013,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2030,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2081,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2098,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2132,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2149,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2183,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2200,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2217,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2234,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
